--- a/Thesis/node_states.xlsx
+++ b/Thesis/node_states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rockmtnins-my.sharepoint.com/personal/abigail_weeks_rmi_org/Documents/Documents/GitHub/Thesis/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{9E02A2B6-ECB6-4618-BD54-B9EF156C98D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D44D548-4727-4E8E-9B2B-407026301B8F}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{9E02A2B6-ECB6-4618-BD54-B9EF156C98D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60CE2F67-5741-429C-82D3-1D5055432C79}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3ADA18EB-F48E-4EB7-BDCA-514FF055EF69}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3ADA18EB-F48E-4EB7-BDCA-514FF055EF69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>unique_id</t>
   </si>
@@ -107,9 +107,6 @@
     <t>PEPCO</t>
   </si>
   <si>
-    <t>Generation(GWh)</t>
-  </si>
-  <si>
     <t>Day Ahead Congestion Hours</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t>available_capacity_round_0</t>
   </si>
   <si>
-    <t>nu_cost_round_0</t>
-  </si>
-  <si>
     <t>annual_growth_rate_ten_ year</t>
   </si>
   <si>
@@ -246,6 +240,12 @@
   </si>
   <si>
     <t>ppl</t>
+  </si>
+  <si>
+    <t>Generation</t>
+  </si>
+  <si>
+    <t>nu_cost_per_mw</t>
   </si>
 </sst>
 </file>
@@ -750,61 +750,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816C1B0C-57D5-4B9A-9755-18F0AFD5BC57}">
-  <dimension ref="A1:AU15"/>
+  <dimension ref="A1:AU14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AK20" sqref="AK20"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.7265625" customWidth="1"/>
     <col min="5" max="7" width="15" customWidth="1"/>
-    <col min="8" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="37" width="8.7109375" customWidth="1"/>
-    <col min="38" max="39" width="8.7109375" style="18" customWidth="1"/>
-    <col min="40" max="40" width="8.85546875" customWidth="1"/>
-    <col min="41" max="41" width="12.140625" customWidth="1"/>
-    <col min="42" max="46" width="9.140625" customWidth="1"/>
+    <col min="8" max="9" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="12" max="12" width="24.81640625" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" customWidth="1"/>
+    <col min="14" max="37" width="8.7265625" customWidth="1"/>
+    <col min="38" max="39" width="8.7265625" style="18" customWidth="1"/>
+    <col min="40" max="40" width="8.81640625" customWidth="1"/>
+    <col min="41" max="41" width="12.1796875" customWidth="1"/>
+    <col min="42" max="46" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M1" t="s">
         <v>6</v>
@@ -819,7 +819,7 @@
         <v>3</v>
       </c>
       <c r="Q1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R1" t="s">
         <v>4</v>
@@ -837,84 +837,84 @@
         <v>9</v>
       </c>
       <c r="W1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM1" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="AN1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AR1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AT1" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="AU1" s="3" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1031,11 +1031,11 @@
         <v>3.4060227631994944</v>
       </c>
       <c r="AP2" s="12">
-        <f t="shared" ref="AP2:AP13" si="0">(E2*1000)/AK2</f>
+        <f t="shared" ref="AP2:AP12" si="0">(E2*1000)/AK2</f>
         <v>1244.8624723363894</v>
       </c>
       <c r="AQ2" s="12">
-        <f t="shared" ref="AQ2:AQ13" si="1">AP2*W2</f>
+        <f t="shared" ref="AQ2:AQ12" si="1">AP2*W2</f>
         <v>34258.615238697435</v>
       </c>
       <c r="AR2" s="21">
@@ -1053,15 +1053,15 @@
         <v>325.81470000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1200,53 +1200,53 @@
         <v>128.0873</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>153290</v>
+        <v>49815</v>
       </c>
       <c r="F4" s="20">
-        <f>E4/AK4</f>
-        <v>4.1480964326208314</v>
+        <f t="shared" ref="F4:F12" si="2">E4/AK4</f>
+        <v>4.619172137531991</v>
       </c>
       <c r="G4" s="20">
-        <f>F4*W4</f>
-        <v>130.04282316266307</v>
+        <f t="shared" ref="G4:G12" si="3">F4*W4</f>
+        <v>148.64495938577946</v>
       </c>
       <c r="H4">
-        <v>850</v>
+        <v>7035</v>
       </c>
       <c r="I4">
-        <v>286.60000000000002</v>
+        <v>123.1</v>
       </c>
       <c r="J4" s="2">
-        <v>36954.300000000003</v>
+        <v>10784.4</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N4">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="O4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P4">
         <v>5000</v>
@@ -1255,31 +1255,31 @@
         <v>600</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W4">
-        <v>31.35</v>
+        <v>32.18</v>
       </c>
       <c r="X4" s="8">
-        <v>0</v>
+        <v>60.4</v>
       </c>
       <c r="Y4" s="8">
         <v>0</v>
       </c>
-      <c r="Z4" s="9">
-        <v>2071</v>
-      </c>
-      <c r="AA4" s="9">
-        <v>3250.9</v>
+      <c r="Z4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>381</v>
       </c>
       <c r="AB4" s="8">
         <v>0</v>
@@ -1287,113 +1287,113 @@
       <c r="AC4" s="8">
         <v>0</v>
       </c>
-      <c r="AD4" s="9">
-        <v>3500.9</v>
+      <c r="AD4" s="10">
+        <v>985.1</v>
       </c>
       <c r="AE4" s="8">
         <v>0</v>
       </c>
       <c r="AF4" s="6">
-        <v>14140.2</v>
+        <v>4089.3999999999996</v>
       </c>
       <c r="AG4" s="6">
-        <v>13463</v>
+        <v>5119</v>
       </c>
       <c r="AH4" s="6">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="6">
-        <v>486.9</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="AJ4" s="6">
-        <v>25.2</v>
+        <v>20.3</v>
       </c>
       <c r="AK4" s="9">
-        <v>36954.300000000003</v>
-      </c>
-      <c r="AL4" s="17">
-        <v>7.4</v>
-      </c>
-      <c r="AM4" s="19">
-        <v>3.78</v>
-      </c>
-      <c r="AN4">
-        <v>66170.899999999994</v>
+        <v>10784.4</v>
+      </c>
+      <c r="AL4" s="16">
+        <v>3.7</v>
+      </c>
+      <c r="AM4" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="AN4" s="6">
+        <v>105</v>
       </c>
       <c r="AO4" s="14">
-        <f>AN4/AK4</f>
-        <v>1.790614353404069</v>
+        <f t="shared" ref="AO4:AO12" si="4">AN4/AK4</f>
+        <v>9.7362857460776674E-3</v>
       </c>
       <c r="AP4" s="12">
-        <f>(E4*1000)/AK4</f>
-        <v>4148.0964326208314</v>
+        <f t="shared" si="0"/>
+        <v>4619.1721375319912</v>
       </c>
       <c r="AQ4" s="12">
-        <f>AP4*W4</f>
-        <v>130042.82316266307</v>
+        <f t="shared" si="1"/>
+        <v>148644.95938577948</v>
       </c>
       <c r="AR4" s="21">
-        <f>AA4/AK4</f>
-        <v>8.7970818010353322E-2</v>
+        <f t="shared" ref="AR4:AR12" si="5">AA4/AK4</f>
+        <v>3.5328808278624682E-2</v>
       </c>
       <c r="AS4" s="21">
-        <f>AD4/AK4</f>
-        <v>9.4735930595356968E-2</v>
+        <f t="shared" ref="AS4:AS12" si="6">AD4/AK4</f>
+        <v>9.1344905604391527E-2</v>
       </c>
       <c r="AT4">
         <v>100</v>
       </c>
       <c r="AU4">
-        <v>412</v>
+        <v>819.90480000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>49815</v>
+        <v>54539</v>
       </c>
       <c r="F5" s="20">
-        <f t="shared" ref="F5:F13" si="2">E5/AK5</f>
-        <v>4.619172137531991</v>
+        <f t="shared" si="2"/>
+        <v>5.8587388548716293</v>
       </c>
       <c r="G5" s="20">
-        <f t="shared" ref="G5:G13" si="3">F5*W5</f>
-        <v>148.64495938577946</v>
+        <f t="shared" si="3"/>
+        <v>183.49570093457942</v>
       </c>
       <c r="H5">
-        <v>7035</v>
+        <v>2262</v>
       </c>
       <c r="I5">
-        <v>123.1</v>
+        <v>150</v>
       </c>
       <c r="J5" s="2">
-        <v>10784.4</v>
+        <v>9309</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N5">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="O5">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="P5">
         <v>5000</v>
@@ -1402,31 +1402,31 @@
         <v>600</v>
       </c>
       <c r="R5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="W5">
-        <v>32.18</v>
+        <v>31.32</v>
       </c>
       <c r="X5" s="8">
-        <v>60.4</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="8">
         <v>0</v>
       </c>
-      <c r="Z5" s="10">
-        <v>0</v>
+      <c r="Z5" s="9">
+        <v>2134</v>
       </c>
       <c r="AA5" s="10">
-        <v>381</v>
+        <v>483</v>
       </c>
       <c r="AB5" s="8">
         <v>0</v>
@@ -1435,112 +1435,109 @@
         <v>0</v>
       </c>
       <c r="AD5" s="10">
-        <v>985.1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="8">
         <v>0</v>
       </c>
       <c r="AF5" s="6">
-        <v>4089.3999999999996</v>
+        <v>6355.5</v>
       </c>
       <c r="AG5" s="6">
-        <v>5119</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="6">
-        <v>0</v>
+        <v>188.5</v>
       </c>
       <c r="AI5" s="6">
-        <v>129.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="6">
-        <v>20.3</v>
+        <v>148</v>
       </c>
       <c r="AK5" s="9">
-        <v>10784.4</v>
+        <v>9309</v>
       </c>
       <c r="AL5" s="16">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AM5" s="16">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AN5" s="6">
-        <v>105</v>
+        <v>7515.7</v>
       </c>
       <c r="AO5" s="14">
-        <f t="shared" ref="AO5:AO13" si="4">AN5/AK5</f>
-        <v>9.7362857460776674E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.80735847029756147</v>
       </c>
       <c r="AP5" s="12">
         <f t="shared" si="0"/>
-        <v>4619.1721375319912</v>
+        <v>5858.7388548716299</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" si="1"/>
-        <v>148644.95938577948</v>
+        <v>183495.70093457945</v>
       </c>
       <c r="AR5" s="21">
-        <f t="shared" ref="AR5:AR13" si="5">AA5/AK5</f>
-        <v>3.5328808278624682E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.1885272317112471E-2</v>
       </c>
       <c r="AS5" s="21">
-        <f t="shared" ref="AS5:AS13" si="6">AD5/AK5</f>
-        <v>9.1344905604391527E-2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="AT5">
         <v>100</v>
       </c>
       <c r="AU5">
-        <v>819.90480000000002</v>
+        <v>571.09780000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>54539</v>
+        <v>138165</v>
       </c>
       <c r="F6" s="20">
         <f t="shared" si="2"/>
-        <v>5.8587388548716293</v>
+        <v>4.5173661857166678</v>
       </c>
       <c r="G6" s="20">
         <f t="shared" si="3"/>
-        <v>183.49570093457942</v>
+        <v>113.92797520377435</v>
       </c>
       <c r="H6">
-        <v>2262</v>
+        <v>2021</v>
       </c>
       <c r="I6">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J6" s="2">
-        <v>9309</v>
+        <v>30585.3</v>
       </c>
       <c r="K6">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="O6">
-        <v>11000</v>
+        <v>900</v>
       </c>
       <c r="P6">
         <v>5000</v>
@@ -1549,31 +1546,31 @@
         <v>600</v>
       </c>
       <c r="R6">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>31.32</v>
+        <v>25.22</v>
       </c>
       <c r="X6" s="8">
-        <v>0</v>
+        <v>104.5</v>
       </c>
       <c r="Y6" s="8">
         <v>0</v>
       </c>
       <c r="Z6" s="9">
-        <v>2134</v>
+        <v>10473.5</v>
       </c>
       <c r="AA6" s="10">
-        <v>483</v>
+        <v>59</v>
       </c>
       <c r="AB6" s="8">
         <v>0</v>
@@ -1581,110 +1578,110 @@
       <c r="AC6" s="8">
         <v>0</v>
       </c>
-      <c r="AD6" s="10">
-        <v>0</v>
+      <c r="AD6" s="9">
+        <v>5376.7</v>
       </c>
       <c r="AE6" s="8">
         <v>0</v>
       </c>
       <c r="AF6" s="6">
-        <v>6355.5</v>
+        <v>11684.400000000001</v>
       </c>
       <c r="AG6" s="6">
-        <v>0</v>
+        <v>2646</v>
       </c>
       <c r="AH6" s="6">
-        <v>188.5</v>
+        <v>226.2</v>
       </c>
       <c r="AI6" s="6">
         <v>0</v>
       </c>
       <c r="AJ6" s="6">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="AK6" s="9">
-        <v>9309</v>
+        <v>30585.3</v>
       </c>
       <c r="AL6" s="16">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AM6" s="16">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AN6" s="6">
-        <v>7515.7</v>
+        <v>2.1</v>
+      </c>
+      <c r="AN6" s="13">
+        <v>30386.9</v>
       </c>
       <c r="AO6" s="14">
         <f t="shared" si="4"/>
-        <v>0.80735847029756147</v>
+        <v>0.99351322367281025</v>
       </c>
       <c r="AP6" s="12">
         <f t="shared" si="0"/>
-        <v>5858.7388548716299</v>
+        <v>4517.366185716668</v>
       </c>
       <c r="AQ6" s="12">
         <f t="shared" si="1"/>
-        <v>183495.70093457945</v>
+        <v>113927.97520377436</v>
       </c>
       <c r="AR6" s="21">
         <f t="shared" si="5"/>
-        <v>5.1885272317112471E-2</v>
+        <v>1.9290312666542424E-3</v>
       </c>
       <c r="AS6" s="21">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.17579360019355703</v>
       </c>
       <c r="AT6">
         <v>100</v>
       </c>
       <c r="AU6">
-        <v>571.09780000000001</v>
+        <v>173.27549999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>138165</v>
+        <v>2051</v>
       </c>
       <c r="F7" s="20">
         <f t="shared" si="2"/>
-        <v>4.5173661857166678</v>
+        <v>1.2626200443240581</v>
       </c>
       <c r="G7" s="20">
         <f t="shared" si="3"/>
-        <v>113.92797520377435</v>
+        <v>41.350806451612904</v>
       </c>
       <c r="H7">
-        <v>2021</v>
+        <v>8728</v>
       </c>
       <c r="I7">
-        <v>250</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="J7" s="2">
-        <v>30585.3</v>
+        <v>1624.4</v>
       </c>
       <c r="K7">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O7">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="P7">
         <v>5000</v>
@@ -1693,31 +1690,31 @@
         <v>600</v>
       </c>
       <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
         <v>1</v>
       </c>
-      <c r="S7">
-        <v>7</v>
-      </c>
       <c r="U7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>25.22</v>
+        <v>32.75</v>
       </c>
       <c r="X7" s="8">
-        <v>104.5</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="8">
         <v>0</v>
       </c>
-      <c r="Z7" s="9">
-        <v>10473.5</v>
+      <c r="Z7" s="10">
+        <v>0</v>
       </c>
       <c r="AA7" s="10">
-        <v>59</v>
+        <v>692.9</v>
       </c>
       <c r="AB7" s="8">
         <v>0</v>
@@ -1725,110 +1722,110 @@
       <c r="AC7" s="8">
         <v>0</v>
       </c>
-      <c r="AD7" s="9">
-        <v>5376.7</v>
+      <c r="AD7" s="10">
+        <v>0</v>
       </c>
       <c r="AE7" s="8">
         <v>0</v>
       </c>
       <c r="AF7" s="6">
-        <v>11684.400000000001</v>
+        <v>897.5</v>
       </c>
       <c r="AG7" s="6">
-        <v>2646</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="6">
-        <v>226.2</v>
+        <v>34</v>
       </c>
       <c r="AI7" s="6">
         <v>0</v>
       </c>
       <c r="AJ7" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="9">
-        <v>30585.3</v>
+        <v>1624.4</v>
       </c>
       <c r="AL7" s="16">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="AM7" s="16">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="AN7" s="13">
-        <v>30386.9</v>
+        <v>3569</v>
       </c>
       <c r="AO7" s="14">
         <f t="shared" si="4"/>
-        <v>0.99351322367281025</v>
+        <v>2.1971189362226053</v>
       </c>
       <c r="AP7" s="12">
         <f t="shared" si="0"/>
-        <v>4517.366185716668</v>
+        <v>1262.620044324058</v>
       </c>
       <c r="AQ7" s="12">
         <f t="shared" si="1"/>
-        <v>113927.97520377436</v>
+        <v>41350.806451612902</v>
       </c>
       <c r="AR7" s="21">
         <f t="shared" si="5"/>
-        <v>1.9290312666542424E-3</v>
+        <v>0.42655749815316418</v>
       </c>
       <c r="AS7" s="21">
         <f t="shared" si="6"/>
-        <v>0.17579360019355703</v>
+        <v>0</v>
       </c>
       <c r="AT7">
         <v>100</v>
       </c>
       <c r="AU7">
-        <v>173.27549999999999</v>
+        <v>104.01390000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>2051</v>
+        <v>105303</v>
       </c>
       <c r="F8" s="20">
         <f t="shared" si="2"/>
-        <v>1.2626200443240581</v>
+        <v>3.6320772613606969</v>
       </c>
       <c r="G8" s="20">
         <f t="shared" si="3"/>
-        <v>41.350806451612904</v>
+        <v>131.29959299818918</v>
       </c>
       <c r="H8">
-        <v>8728</v>
+        <v>4249</v>
       </c>
       <c r="I8">
-        <v>34.299999999999997</v>
+        <v>246.4</v>
       </c>
       <c r="J8" s="2">
-        <v>1624.4</v>
+        <v>2172.9</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N8">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O8">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="P8">
         <v>5000</v>
@@ -1837,31 +1834,31 @@
         <v>600</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S8">
         <v>1</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="W8">
-        <v>32.75</v>
+        <v>36.15</v>
       </c>
       <c r="X8" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y8" s="8">
         <v>0</v>
       </c>
-      <c r="Z8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="10">
-        <v>692.9</v>
+      <c r="Z8" s="9">
+        <v>3581.3</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>4826.8999999999996</v>
       </c>
       <c r="AB8" s="8">
         <v>0</v>
@@ -1870,109 +1867,109 @@
         <v>0</v>
       </c>
       <c r="AD8" s="10">
-        <v>0</v>
+        <v>776</v>
       </c>
       <c r="AE8" s="8">
         <v>0</v>
       </c>
       <c r="AF8" s="6">
-        <v>897.5</v>
+        <v>13028.3</v>
       </c>
       <c r="AG8" s="6">
-        <v>0</v>
+        <v>2473.1999999999998</v>
       </c>
       <c r="AH8" s="6">
-        <v>34</v>
+        <v>274.39999999999998</v>
       </c>
       <c r="AI8" s="6">
-        <v>0</v>
+        <v>3589.3</v>
       </c>
       <c r="AJ8" s="6">
-        <v>0</v>
+        <v>423.09999999999997</v>
       </c>
       <c r="AK8" s="9">
-        <v>1624.4</v>
+        <v>28992.5</v>
       </c>
       <c r="AL8" s="16">
-        <v>1.9</v>
+        <v>8.4</v>
       </c>
       <c r="AM8" s="16">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="AN8" s="13">
-        <v>3569</v>
+        <v>44067.6</v>
       </c>
       <c r="AO8" s="14">
         <f t="shared" si="4"/>
-        <v>2.1971189362226053</v>
+        <v>1.5199655083211174</v>
       </c>
       <c r="AP8" s="12">
         <f t="shared" si="0"/>
-        <v>1262.620044324058</v>
+        <v>3632.0772613606969</v>
       </c>
       <c r="AQ8" s="12">
         <f t="shared" si="1"/>
-        <v>41350.806451612902</v>
+        <v>131299.59299818918</v>
       </c>
       <c r="AR8" s="21">
         <f t="shared" si="5"/>
-        <v>0.42655749815316418</v>
+        <v>0.16648788479779253</v>
       </c>
       <c r="AS8" s="21">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.6765542812796413E-2</v>
       </c>
       <c r="AT8">
         <v>100</v>
       </c>
       <c r="AU8">
-        <v>104.01390000000001</v>
+        <v>329.541</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>105303</v>
+        <v>5076</v>
       </c>
       <c r="F9" s="20">
         <f t="shared" si="2"/>
-        <v>3.6320772613606969</v>
+        <v>0.99942901021874819</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" si="3"/>
-        <v>131.29959299818918</v>
+        <v>30.922333576168072</v>
       </c>
       <c r="H9">
-        <v>4249</v>
+        <v>6017</v>
       </c>
       <c r="I9">
-        <v>246.4</v>
+        <v>64.2</v>
       </c>
       <c r="J9" s="2">
-        <v>2172.9</v>
+        <v>28992.5</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N9">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="O9">
-        <v>650</v>
+        <v>4000</v>
       </c>
       <c r="P9">
         <v>5000</v>
@@ -1981,31 +1978,31 @@
         <v>600</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="U9">
         <v>1</v>
       </c>
-      <c r="U9">
-        <v>6</v>
-      </c>
       <c r="V9">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="W9">
-        <v>36.15</v>
+        <v>30.94</v>
       </c>
       <c r="X9" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>3581.3</v>
-      </c>
-      <c r="AA9" s="9">
-        <v>4826.8999999999996</v>
+        <v>30</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>470.9</v>
       </c>
       <c r="AB9" s="8">
         <v>0</v>
@@ -2014,109 +2011,109 @@
         <v>0</v>
       </c>
       <c r="AD9" s="10">
-        <v>776</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="8">
         <v>0</v>
       </c>
       <c r="AF9" s="6">
-        <v>13028.3</v>
+        <v>3430.7</v>
       </c>
       <c r="AG9" s="6">
-        <v>2473.1999999999998</v>
+        <v>410</v>
       </c>
       <c r="AH9" s="6">
-        <v>274.39999999999998</v>
+        <v>653.20000000000005</v>
       </c>
       <c r="AI9" s="6">
-        <v>3589.3</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="6">
-        <v>423.09999999999997</v>
+        <v>84.1</v>
       </c>
       <c r="AK9" s="9">
-        <v>28992.5</v>
+        <v>5078.8999999999996</v>
       </c>
       <c r="AL9" s="16">
-        <v>8.4</v>
+        <v>0.2</v>
       </c>
       <c r="AM9" s="16">
-        <v>5.2</v>
+        <v>0.4</v>
       </c>
       <c r="AN9" s="13">
-        <v>44067.6</v>
+        <v>8885.9</v>
       </c>
       <c r="AO9" s="14">
         <f t="shared" si="4"/>
-        <v>1.5199655083211174</v>
+        <v>1.7495717576640613</v>
       </c>
       <c r="AP9" s="12">
         <f t="shared" si="0"/>
-        <v>3632.0772613606969</v>
+        <v>999.4290102187482</v>
       </c>
       <c r="AQ9" s="12">
         <f t="shared" si="1"/>
-        <v>131299.59299818918</v>
+        <v>30922.333576168072</v>
       </c>
       <c r="AR9" s="21">
         <f t="shared" si="5"/>
-        <v>0.16648788479779253</v>
+        <v>9.2716926893618698E-2</v>
       </c>
       <c r="AS9" s="21">
         <f t="shared" si="6"/>
-        <v>2.6765542812796413E-2</v>
+        <v>0</v>
       </c>
       <c r="AT9">
         <v>100</v>
       </c>
       <c r="AU9">
-        <v>329.541</v>
+        <v>268.78199999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>5076</v>
+        <v>9300</v>
       </c>
       <c r="F10" s="20">
         <f t="shared" si="2"/>
-        <v>0.99942901021874819</v>
+        <v>3.4418948926720949</v>
       </c>
       <c r="G10" s="20">
         <f t="shared" si="3"/>
-        <v>30.922333576168072</v>
+        <v>95.237231680236874</v>
       </c>
       <c r="H10">
-        <v>6017</v>
+        <v>104</v>
       </c>
       <c r="I10">
-        <v>64.2</v>
+        <v>28.1</v>
       </c>
       <c r="J10" s="2">
-        <v>28992.5</v>
+        <v>2702</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N10">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="O10">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="P10">
         <v>5000</v>
@@ -2125,31 +2122,31 @@
         <v>600</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V10">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="W10">
-        <v>30.94</v>
+        <v>27.67</v>
       </c>
       <c r="X10" s="8">
         <v>0</v>
       </c>
       <c r="Y10" s="8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="10">
         <v>0</v>
       </c>
       <c r="AA10" s="10">
-        <v>470.9</v>
+        <v>105</v>
       </c>
       <c r="AB10" s="8">
         <v>0</v>
@@ -2164,47 +2161,47 @@
         <v>0</v>
       </c>
       <c r="AF10" s="6">
-        <v>3430.7</v>
+        <v>774</v>
       </c>
       <c r="AG10" s="6">
-        <v>410</v>
+        <v>1687</v>
       </c>
       <c r="AH10" s="6">
-        <v>653.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="6">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="AJ10" s="6">
-        <v>84.1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="9">
-        <v>5078.8999999999996</v>
+        <v>2702</v>
       </c>
       <c r="AL10" s="16">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="AM10" s="16">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="AN10" s="13">
-        <v>8885.9</v>
+        <v>7954.7</v>
       </c>
       <c r="AO10" s="14">
         <f t="shared" si="4"/>
-        <v>1.7495717576640613</v>
+        <v>2.9440044411546999</v>
       </c>
       <c r="AP10" s="12">
         <f t="shared" si="0"/>
-        <v>999.4290102187482</v>
+        <v>3441.8948926720946</v>
       </c>
       <c r="AQ10" s="12">
         <f t="shared" si="1"/>
-        <v>30922.333576168072</v>
+        <v>95237.231680236859</v>
       </c>
       <c r="AR10" s="21">
         <f t="shared" si="5"/>
-        <v>9.2716926893618698E-2</v>
+        <v>3.8860103626943004E-2</v>
       </c>
       <c r="AS10" s="21">
         <f t="shared" si="6"/>
@@ -2214,47 +2211,47 @@
         <v>100</v>
       </c>
       <c r="AU10">
-        <v>268.78199999999998</v>
+        <v>177.1003</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>9300</v>
+        <v>57976</v>
       </c>
       <c r="F11" s="20">
         <f t="shared" si="2"/>
-        <v>3.4418948926720949</v>
+        <v>6.1772540328595484</v>
       </c>
       <c r="G11" s="20">
         <f t="shared" si="3"/>
-        <v>95.237231680236874</v>
+        <v>195.26299997869032</v>
       </c>
       <c r="H11">
-        <v>104</v>
+        <v>9795</v>
       </c>
       <c r="I11">
-        <v>28.1</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="J11" s="2">
-        <v>2702</v>
+        <v>9385.4</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N11">
         <v>100</v>
@@ -2269,127 +2266,127 @@
         <v>600</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V11">
+        <v>1.4</v>
+      </c>
+      <c r="W11">
+        <v>31.61</v>
+      </c>
+      <c r="X11" s="8">
+        <v>28.4</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="10">
+        <v>168.5</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="9">
+        <v>1238</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>3052.2</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>4169.5</v>
+      </c>
+      <c r="AH11" s="6">
+        <v>85</v>
+      </c>
+      <c r="AI11" s="6">
+        <v>590.79999999999995</v>
+      </c>
+      <c r="AJ11" s="6">
+        <v>53</v>
+      </c>
+      <c r="AK11" s="9">
+        <v>9385.4</v>
+      </c>
+      <c r="AL11" s="16">
+        <v>1.6</v>
+      </c>
+      <c r="AM11" s="16">
         <v>1.3</v>
       </c>
-      <c r="W11">
-        <v>27.67</v>
-      </c>
-      <c r="X11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="10">
-        <v>105</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>774</v>
-      </c>
-      <c r="AG11" s="6">
-        <v>1687</v>
-      </c>
-      <c r="AH11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="6">
-        <v>136</v>
-      </c>
-      <c r="AJ11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="9">
-        <v>2702</v>
-      </c>
-      <c r="AL11" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="AM11" s="16">
-        <v>0.9</v>
-      </c>
       <c r="AN11" s="13">
-        <v>7954.7</v>
+        <v>7073.9</v>
       </c>
       <c r="AO11" s="14">
         <f t="shared" si="4"/>
-        <v>2.9440044411546999</v>
+        <v>0.75371321414111281</v>
       </c>
       <c r="AP11" s="12">
         <f t="shared" si="0"/>
-        <v>3441.8948926720946</v>
+        <v>6177.2540328595478</v>
       </c>
       <c r="AQ11" s="12">
         <f t="shared" si="1"/>
-        <v>95237.231680236859</v>
+        <v>195262.99997869029</v>
       </c>
       <c r="AR11" s="21">
         <f t="shared" si="5"/>
-        <v>3.8860103626943004E-2</v>
+        <v>1.7953417009397576E-2</v>
       </c>
       <c r="AS11" s="21">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.1319070044963454</v>
       </c>
       <c r="AT11">
         <v>100</v>
       </c>
       <c r="AU11">
-        <v>177.1003</v>
+        <v>417.80309999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>57976</v>
+        <v>10580</v>
       </c>
       <c r="F12" s="20">
         <f t="shared" si="2"/>
-        <v>6.1772540328595484</v>
+        <v>2.7009777641622628</v>
       </c>
       <c r="G12" s="20">
         <f t="shared" si="3"/>
-        <v>195.26299997869032</v>
+        <v>101.58377371014269</v>
       </c>
       <c r="H12">
-        <v>9795</v>
+        <v>265</v>
       </c>
       <c r="I12">
-        <v>38.200000000000003</v>
+        <v>55.7</v>
       </c>
       <c r="J12" s="2">
-        <v>9385.4</v>
+        <v>3917.1</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -2425,10 +2422,10 @@
         <v>1.4</v>
       </c>
       <c r="W12">
-        <v>31.61</v>
+        <v>37.61</v>
       </c>
       <c r="X12" s="8">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="8">
         <v>0</v>
@@ -2437,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="10">
-        <v>168.5</v>
+        <v>35.6</v>
       </c>
       <c r="AB12" s="8">
         <v>0</v>
@@ -2445,86 +2442,86 @@
       <c r="AC12" s="8">
         <v>0</v>
       </c>
-      <c r="AD12" s="9">
-        <v>1238</v>
+      <c r="AD12" s="10">
+        <v>0</v>
       </c>
       <c r="AE12" s="8">
         <v>0</v>
       </c>
       <c r="AF12" s="6">
-        <v>3052.2</v>
+        <v>3670.8</v>
       </c>
       <c r="AG12" s="6">
-        <v>4169.5</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="6">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="AI12" s="6">
-        <v>590.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="6">
-        <v>53</v>
+        <v>60.7</v>
       </c>
       <c r="AK12" s="9">
-        <v>9385.4</v>
+        <v>3917.1</v>
       </c>
       <c r="AL12" s="16">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="AM12" s="16">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AN12" s="13">
-        <v>7073.9</v>
+        <v>3155.7</v>
       </c>
       <c r="AO12" s="14">
         <f t="shared" si="4"/>
-        <v>0.75371321414111281</v>
+        <v>0.80562150570575164</v>
       </c>
       <c r="AP12" s="12">
         <f t="shared" si="0"/>
-        <v>6177.2540328595478</v>
+        <v>2700.9777641622632</v>
       </c>
       <c r="AQ12" s="12">
         <f t="shared" si="1"/>
-        <v>195262.99997869029</v>
+        <v>101583.77371014272</v>
       </c>
       <c r="AR12" s="21">
         <f t="shared" si="5"/>
-        <v>1.7953417009397576E-2</v>
+        <v>9.0883561818692407E-3</v>
       </c>
       <c r="AS12" s="21">
         <f t="shared" si="6"/>
-        <v>0.1319070044963454</v>
+        <v>0</v>
       </c>
       <c r="AT12">
         <v>100</v>
       </c>
       <c r="AU12">
-        <v>417.80309999999997</v>
+        <v>8.5723490000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E13">
-        <v>10580</v>
+        <v>74792</v>
       </c>
       <c r="F13" s="20">
-        <f t="shared" si="2"/>
-        <v>2.7009777641622628</v>
+        <f t="shared" ref="F13" si="7">E13/AK13</f>
+        <v>5.1777802392556493</v>
       </c>
       <c r="G13" s="20">
-        <f t="shared" si="3"/>
-        <v>101.58377371014269</v>
+        <f t="shared" ref="G13" si="8">F13*W13</f>
+        <v>137.62539875941516</v>
       </c>
       <c r="H13">
         <v>265</v>
@@ -2533,7 +2530,7 @@
         <v>55.7</v>
       </c>
       <c r="J13" s="2">
-        <v>3917.1</v>
+        <v>14444.8</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2569,19 +2566,19 @@
         <v>1.4</v>
       </c>
       <c r="W13">
-        <v>37.61</v>
+        <v>26.58</v>
       </c>
       <c r="X13" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y13" s="8">
         <v>0</v>
       </c>
       <c r="Z13" s="10">
-        <v>0</v>
+        <v>2520</v>
       </c>
       <c r="AA13" s="10">
-        <v>35.6</v>
+        <v>75</v>
       </c>
       <c r="AB13" s="8">
         <v>0</v>
@@ -2590,28 +2587,33 @@
         <v>0</v>
       </c>
       <c r="AD13" s="10">
-        <v>0</v>
+        <v>216.5</v>
       </c>
       <c r="AE13" s="8">
         <v>0</v>
       </c>
       <c r="AF13" s="6">
-        <v>3670.8</v>
+        <f>5558.5+234</f>
+        <v>5792.5</v>
       </c>
       <c r="AG13" s="6">
-        <v>0</v>
+        <v>1859.9</v>
       </c>
       <c r="AH13" s="6">
-        <v>150</v>
+        <f>36+5</f>
+        <v>41</v>
       </c>
       <c r="AI13" s="6">
-        <v>0</v>
+        <f>706</f>
+        <v>706</v>
       </c>
       <c r="AJ13" s="6">
-        <v>60.7</v>
+        <f>20.6+14.7+29</f>
+        <v>64.3</v>
       </c>
       <c r="AK13" s="9">
-        <v>3917.1</v>
+        <f>14444.8</f>
+        <v>14444.8</v>
       </c>
       <c r="AL13" s="16">
         <v>0.6</v>
@@ -2623,144 +2625,88 @@
         <v>3155.7</v>
       </c>
       <c r="AO13" s="14">
-        <f t="shared" si="4"/>
-        <v>0.80562150570575164</v>
+        <f t="shared" ref="AO13:AO14" si="9">AN13/AK13</f>
+        <v>0.21846616083296411</v>
       </c>
       <c r="AP13" s="12">
-        <f t="shared" si="0"/>
-        <v>2700.9777641622632</v>
+        <f t="shared" ref="AP13:AP14" si="10">(E13*1000)/AK13</f>
+        <v>5177.7802392556496</v>
       </c>
       <c r="AQ13" s="12">
-        <f t="shared" si="1"/>
-        <v>101583.77371014272</v>
+        <f t="shared" ref="AQ13:AQ14" si="11">AP13*W13</f>
+        <v>137625.39875941517</v>
       </c>
       <c r="AR13" s="21">
-        <f t="shared" si="5"/>
-        <v>9.0883561818692407E-3</v>
+        <f t="shared" ref="AR13:AR14" si="12">AA13/AK13</f>
+        <v>5.1921798848028359E-3</v>
       </c>
       <c r="AS13" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="AS13:AS14" si="13">AD13/AK13</f>
+        <v>1.4988092600797519E-2</v>
       </c>
       <c r="AT13">
         <v>100</v>
       </c>
       <c r="AU13">
-        <v>8.5723490000000009</v>
+        <v>857.04359999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14">
-        <v>74792</v>
-      </c>
-      <c r="F14" s="20">
-        <f t="shared" ref="F14" si="7">E14/AK14</f>
-        <v>5.1777802392556493</v>
-      </c>
-      <c r="G14" s="20">
-        <f t="shared" ref="G14" si="8">F14*W14</f>
-        <v>137.62539875941516</v>
-      </c>
-      <c r="H14">
-        <v>265</v>
-      </c>
-      <c r="I14">
-        <v>55.7</v>
-      </c>
-      <c r="J14" s="2">
-        <v>14444.8</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>10</v>
-      </c>
-      <c r="M14">
-        <v>12</v>
-      </c>
-      <c r="N14">
-        <v>100</v>
-      </c>
-      <c r="O14">
-        <v>1000</v>
-      </c>
-      <c r="P14">
-        <v>5000</v>
-      </c>
-      <c r="Q14">
-        <v>600</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>8</v>
-      </c>
-      <c r="U14">
-        <v>6</v>
-      </c>
-      <c r="V14">
-        <v>1.4</v>
-      </c>
-      <c r="W14">
-        <v>26.58</v>
-      </c>
-      <c r="X14" s="8">
-        <v>30</v>
-      </c>
-      <c r="Y14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="10">
-        <v>2520</v>
-      </c>
-      <c r="AA14" s="10">
-        <v>75</v>
-      </c>
-      <c r="AB14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="10">
-        <v>216.5</v>
-      </c>
-      <c r="AE14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="6">
-        <f>5558.5+234</f>
-        <v>5792.5</v>
-      </c>
-      <c r="AG14" s="6">
-        <v>1859.9</v>
-      </c>
-      <c r="AH14" s="6">
-        <f>36+5</f>
-        <v>41</v>
-      </c>
-      <c r="AI14" s="6">
-        <f>706</f>
-        <v>706</v>
-      </c>
-      <c r="AJ14" s="6">
-        <f>20.6+14.7+29</f>
-        <v>64.3</v>
-      </c>
-      <c r="AK14" s="9">
-        <f>14444.8</f>
-        <v>14444.8</v>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="X14" s="11">
+        <f t="shared" ref="X14:AK14" si="14">SUM(X2:X13)</f>
+        <v>243.3</v>
+      </c>
+      <c r="Y14" s="11">
+        <f t="shared" si="14"/>
+        <v>31.6</v>
+      </c>
+      <c r="Z14" s="11">
+        <f t="shared" si="14"/>
+        <v>20779.8</v>
+      </c>
+      <c r="AA14" s="11">
+        <f t="shared" si="14"/>
+        <v>10618.4</v>
+      </c>
+      <c r="AB14" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="11">
+        <f t="shared" si="14"/>
+        <v>12100.7</v>
+      </c>
+      <c r="AE14" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="11">
+        <f t="shared" si="14"/>
+        <v>68092.600000000006</v>
+      </c>
+      <c r="AG14" s="11">
+        <f t="shared" si="14"/>
+        <v>31827.600000000002</v>
+      </c>
+      <c r="AH14" s="11">
+        <f t="shared" si="14"/>
+        <v>1672.5</v>
+      </c>
+      <c r="AI14" s="11">
+        <f t="shared" si="14"/>
+        <v>5638.2</v>
+      </c>
+      <c r="AJ14" s="11">
+        <f t="shared" si="14"/>
+        <v>899.1</v>
+      </c>
+      <c r="AK14" s="11">
+        <f t="shared" si="14"/>
+        <v>155043.29999999999</v>
       </c>
       <c r="AL14" s="16">
         <v>0.6</v>
@@ -2772,24 +2718,24 @@
         <v>3155.7</v>
       </c>
       <c r="AO14" s="14">
-        <f t="shared" ref="AO14:AO15" si="9">AN14/AK14</f>
-        <v>0.21846616083296411</v>
+        <f t="shared" si="9"/>
+        <v>2.035366894280501E-2</v>
       </c>
       <c r="AP14" s="12">
-        <f t="shared" ref="AP14:AP15" si="10">(E14*1000)/AK14</f>
-        <v>5177.7802392556496</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AQ14" s="12">
-        <f t="shared" ref="AQ14:AQ15" si="11">AP14*W14</f>
-        <v>137625.39875941517</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="AR14" s="21">
-        <f t="shared" ref="AR14:AR15" si="12">AA14/AK14</f>
-        <v>5.1921798848028359E-3</v>
+        <f t="shared" si="12"/>
+        <v>6.848667436774114E-2</v>
       </c>
       <c r="AS14" s="21">
-        <f t="shared" ref="AS14:AS15" si="13">AD14/AK14</f>
-        <v>1.4988092600797519E-2</v>
+        <f t="shared" si="13"/>
+        <v>7.8047229386887421E-2</v>
       </c>
       <c r="AT14">
         <v>100</v>
@@ -2798,102 +2744,9 @@
         <v>857.04359999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="X15" s="11">
-        <f>SUM(X2:X14)</f>
-        <v>243.3</v>
-      </c>
-      <c r="Y15" s="11">
-        <f>SUM(Y2:Y14)</f>
-        <v>31.6</v>
-      </c>
-      <c r="Z15" s="11">
-        <f>SUM(Z2:Z14)</f>
-        <v>22850.799999999999</v>
-      </c>
-      <c r="AA15" s="11">
-        <f>SUM(AA2:AA14)</f>
-        <v>13869.3</v>
-      </c>
-      <c r="AB15" s="11">
-        <f>SUM(AB2:AB14)</f>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="11">
-        <f>SUM(AC2:AC14)</f>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="11">
-        <f>SUM(AD2:AD14)</f>
-        <v>15601.6</v>
-      </c>
-      <c r="AE15" s="11">
-        <f>SUM(AE2:AE14)</f>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="11">
-        <f>SUM(AF2:AF14)</f>
-        <v>82232.800000000003</v>
-      </c>
-      <c r="AG15" s="11">
-        <f>SUM(AG2:AG14)</f>
-        <v>45290.6</v>
-      </c>
-      <c r="AH15" s="11">
-        <f>SUM(AH2:AH14)</f>
-        <v>1688.7</v>
-      </c>
-      <c r="AI15" s="11">
-        <f>SUM(AI2:AI14)</f>
-        <v>6125.1</v>
-      </c>
-      <c r="AJ15" s="11">
-        <f>SUM(AJ2:AJ14)</f>
-        <v>924.3</v>
-      </c>
-      <c r="AK15" s="11">
-        <f>SUM(AK2:AK14)</f>
-        <v>191997.59999999998</v>
-      </c>
-      <c r="AL15" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="AM15" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="AN15" s="13">
-        <v>3155.7</v>
-      </c>
-      <c r="AO15" s="14">
-        <f t="shared" si="9"/>
-        <v>1.64361429517869E-2</v>
-      </c>
-      <c r="AP15" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="12">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR15" s="21">
-        <f t="shared" si="12"/>
-        <v>7.2236840460505755E-2</v>
-      </c>
-      <c r="AS15" s="21">
-        <f t="shared" si="13"/>
-        <v>8.1259349075196788E-2</v>
-      </c>
-      <c r="AT15">
-        <v>100</v>
-      </c>
-      <c r="AU15">
-        <v>857.04359999999997</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E14">
-    <cfRule type="colorScale" priority="69">
+  <conditionalFormatting sqref="E2:E13">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2904,8 +2757,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F14">
-    <cfRule type="colorScale" priority="70">
+  <conditionalFormatting sqref="F2:F13">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2916,8 +2769,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G14">
-    <cfRule type="colorScale" priority="71">
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2928,8 +2781,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W14">
-    <cfRule type="colorScale" priority="72">
+  <conditionalFormatting sqref="W2:W13">
+    <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2940,8 +2793,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AM15">
-    <cfRule type="colorScale" priority="73">
+  <conditionalFormatting sqref="AM2:AM14">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2952,8 +2805,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN2:AN15">
-    <cfRule type="colorScale" priority="74">
+  <conditionalFormatting sqref="AN2:AN14">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2964,8 +2817,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN1:AO15">
-    <cfRule type="colorScale" priority="75">
+  <conditionalFormatting sqref="AN1:AO14">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2976,8 +2829,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AO15">
-    <cfRule type="colorScale" priority="76">
+  <conditionalFormatting sqref="AO2:AO14">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Thesis/node_states.xlsx
+++ b/Thesis/node_states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rockmtnins-my.sharepoint.com/personal/abigail_weeks_rmi_org/Documents/Documents/GitHub/Thesis/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="739" documentId="8_{9E02A2B6-ECB6-4618-BD54-B9EF156C98D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47CCD1FA-5032-4E9A-AF11-8A8FDB3DB87D}"/>
+  <xr:revisionPtr revIDLastSave="751" documentId="8_{9E02A2B6-ECB6-4618-BD54-B9EF156C98D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FBE32E0-3847-4FD9-9559-C45A25BBB38B}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3ADA18EB-F48E-4EB7-BDCA-514FF055EF69}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3ADA18EB-F48E-4EB7-BDCA-514FF055EF69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="148">
   <si>
     <t>unique_id</t>
   </si>
@@ -523,6 +523,18 @@
   </si>
   <si>
     <t>MMR Table 12-21</t>
+  </si>
+  <si>
+    <t>available_capacity</t>
+  </si>
+  <si>
+    <t>congestion_indicator</t>
+  </si>
+  <si>
+    <t>queue_size_normalized_by_capacity</t>
+  </si>
+  <si>
+    <t>installed_capacity</t>
   </si>
 </sst>
 </file>
@@ -1309,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816C1B0C-57D5-4B9A-9755-18F0AFD5BC57}">
   <dimension ref="A1:BW54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1356,7 +1368,7 @@
         <v>21</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>60</v>
@@ -1380,7 +1392,7 @@
         <v>20</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="R1" s="24" t="s">
         <v>25</v>
@@ -1392,7 +1404,7 @@
         <v>39</v>
       </c>
       <c r="U1" s="23" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="V1" s="23" t="s">
         <v>22</v>
@@ -1401,7 +1413,7 @@
         <v>23</v>
       </c>
       <c r="X1" s="23" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="Y1" s="23"/>
       <c r="Z1" s="23" t="s">
@@ -1563,7 +1575,10 @@
       <c r="H2" s="22">
         <v>16.3</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="22">
+        <f>(H2/Q2)*1000</f>
+        <v>12.883338602592476</v>
+      </c>
       <c r="J2" s="22">
         <f>0.5*X2</f>
         <v>63.260000000000005</v>
@@ -1583,7 +1598,7 @@
       </c>
       <c r="O2" s="22">
         <f ca="1">ROUND(RAND()*4, 2)</f>
-        <v>0.73</v>
+        <v>3.87</v>
       </c>
       <c r="P2" s="22">
         <v>27.54</v>
@@ -1778,13 +1793,16 @@
       <c r="H3" s="22">
         <v>286.60000000000002</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="22">
+        <f t="shared" ref="I3:I21" si="1">(H3/Q3)*1000</f>
+        <v>7.7555250674481719</v>
+      </c>
       <c r="J3" s="22">
-        <f t="shared" ref="J3:J21" si="1">0.5*X3</f>
+        <f t="shared" ref="J3:J21" si="2">0.5*X3</f>
         <v>1847.7150000000001</v>
       </c>
       <c r="K3" s="22">
-        <f t="shared" ref="K3:K21" si="2">J3*1.5</f>
+        <f t="shared" ref="K3:K21" si="3">J3*1.5</f>
         <v>2771.5725000000002</v>
       </c>
       <c r="L3" s="22">
@@ -1797,8 +1815,8 @@
         <v>1000</v>
       </c>
       <c r="O3" s="22">
-        <f t="shared" ref="O3:O21" ca="1" si="3">ROUND(RAND()*4, 2)</f>
-        <v>0.9</v>
+        <f t="shared" ref="O3:O21" ca="1" si="4">ROUND(RAND()*4, 2)</f>
+        <v>1.5</v>
       </c>
       <c r="P3" s="22">
         <v>31.18</v>
@@ -1816,19 +1834,19 @@
         <v>66170.899999999994</v>
       </c>
       <c r="U3" s="22">
-        <f t="shared" ref="U3:U21" si="4">T3/Q3</f>
+        <f t="shared" ref="U3:U21" si="5">T3/Q3</f>
         <v>1.790614353404069</v>
       </c>
       <c r="V3" s="27">
-        <f t="shared" ref="V3:V21" si="5">(AM3+AN3)/Q3</f>
+        <f t="shared" ref="V3:V21" si="6">(AM3+AN3)/Q3</f>
         <v>8.7970818010353322E-2</v>
       </c>
       <c r="W3" s="27">
-        <f t="shared" ref="W3:W21" si="6">(AT3+AU3)/Q3</f>
+        <f t="shared" ref="W3:W21" si="7">(AT3+AU3)/Q3</f>
         <v>9.4735930595356968E-2</v>
       </c>
       <c r="X3" s="22">
-        <f t="shared" ref="X3:X21" si="7">Q3*0.1</f>
+        <f t="shared" ref="X3:X21" si="8">Q3*0.1</f>
         <v>3695.4300000000003</v>
       </c>
       <c r="Y3" t="s">
@@ -1993,13 +2011,16 @@
       <c r="H4" s="22">
         <v>123.1</v>
       </c>
-      <c r="I4" s="22"/>
+      <c r="I4" s="22">
+        <f t="shared" si="1"/>
+        <v>11.414635955639628</v>
+      </c>
       <c r="J4" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>539.22</v>
       </c>
       <c r="K4" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>808.83</v>
       </c>
       <c r="L4" s="22">
@@ -2012,8 +2033,8 @@
         <v>1000</v>
       </c>
       <c r="O4" s="22">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.37</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1.54</v>
       </c>
       <c r="P4" s="22">
         <v>32.33</v>
@@ -2031,19 +2052,19 @@
         <v>14664.8</v>
       </c>
       <c r="U4" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3598160305626645</v>
       </c>
       <c r="V4" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5328808278624682E-2</v>
       </c>
       <c r="W4" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.1344905604391527E-2</v>
       </c>
       <c r="X4" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1078.44</v>
       </c>
       <c r="Y4" t="s">
@@ -2208,13 +2229,16 @@
       <c r="H5" s="22">
         <v>150</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="22">
+        <f t="shared" si="1"/>
+        <v>16.113438607798905</v>
+      </c>
       <c r="J5" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>465.45000000000005</v>
       </c>
       <c r="K5" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>698.17500000000007</v>
       </c>
       <c r="L5" s="22">
@@ -2227,8 +2251,8 @@
         <v>1000</v>
       </c>
       <c r="O5" s="22">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.2400000000000002</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.76</v>
       </c>
       <c r="P5" s="22">
         <v>31.47</v>
@@ -2246,19 +2270,19 @@
         <v>7515.7</v>
       </c>
       <c r="U5" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.80735847029756147</v>
       </c>
       <c r="V5" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1885272317112471E-2</v>
       </c>
       <c r="W5" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X5" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>930.90000000000009</v>
       </c>
       <c r="Y5" t="s">
@@ -2423,13 +2447,16 @@
       <c r="H6" s="22">
         <v>67.2</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="22">
+        <f t="shared" si="1"/>
+        <v>15.284190415538928</v>
+      </c>
       <c r="J6" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>219.83500000000001</v>
       </c>
       <c r="K6" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>329.7525</v>
       </c>
       <c r="L6" s="22">
@@ -2442,8 +2469,8 @@
         <v>1000</v>
       </c>
       <c r="O6" s="22">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.79</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.4500000000000002</v>
       </c>
       <c r="P6" s="22">
         <v>40.11</v>
@@ -2461,19 +2488,19 @@
         <v>1349.9</v>
       </c>
       <c r="U6" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30702572383833332</v>
       </c>
       <c r="V6" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5018764073054796E-4</v>
       </c>
       <c r="W6" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X6" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>439.67</v>
       </c>
       <c r="Y6" t="s">
@@ -2635,13 +2662,16 @@
       <c r="H7" s="22">
         <v>250</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="22">
+        <f t="shared" si="1"/>
+        <v>8.1738612993823825</v>
+      </c>
       <c r="J7" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1529.2650000000001</v>
       </c>
       <c r="K7" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2293.8975</v>
       </c>
       <c r="L7" s="22">
@@ -2654,8 +2684,8 @@
         <v>1000</v>
       </c>
       <c r="O7" s="22">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.93</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.04</v>
       </c>
       <c r="P7" s="22">
         <v>25.55</v>
@@ -2673,19 +2703,19 @@
         <v>30386.9</v>
       </c>
       <c r="U7" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99351322367281025</v>
       </c>
       <c r="V7" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9290312666542424E-3</v>
       </c>
       <c r="W7" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.17579360019355703</v>
       </c>
       <c r="X7" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3058.53</v>
       </c>
       <c r="Y7" t="s">
@@ -2850,13 +2880,16 @@
       <c r="H8" s="22">
         <v>34.299999999999997</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="22">
+        <f t="shared" si="1"/>
+        <v>21.115488795863087</v>
+      </c>
       <c r="J8" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81.220000000000013</v>
       </c>
       <c r="K8" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>121.83000000000001</v>
       </c>
       <c r="L8" s="22">
@@ -2869,8 +2902,8 @@
         <v>1000</v>
       </c>
       <c r="O8" s="22">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.37</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1.3</v>
       </c>
       <c r="P8" s="22">
         <v>32.69</v>
@@ -2888,19 +2921,19 @@
         <v>3569</v>
       </c>
       <c r="U8" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1971189362226053</v>
       </c>
       <c r="V8" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.42655749815316418</v>
       </c>
       <c r="W8" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X8" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>162.44000000000003</v>
       </c>
       <c r="Y8" t="s">
@@ -3065,13 +3098,16 @@
       <c r="H9" s="22">
         <v>48.8</v>
       </c>
-      <c r="I9" s="22"/>
+      <c r="I9" s="22">
+        <f t="shared" si="1"/>
+        <v>16.828166488499601</v>
+      </c>
       <c r="J9" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>144.995</v>
       </c>
       <c r="K9" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>217.49250000000001</v>
       </c>
       <c r="L9" s="22">
@@ -3084,8 +3120,8 @@
         <v>1000</v>
       </c>
       <c r="O9" s="22">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.77</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1.22</v>
       </c>
       <c r="P9" s="22">
         <v>31.28</v>
@@ -3103,19 +3139,19 @@
         <v>1289.2</v>
       </c>
       <c r="U9" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44456705403634611</v>
       </c>
       <c r="V9" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.9968964447049891E-2</v>
       </c>
       <c r="W9" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X9" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>289.99</v>
       </c>
       <c r="Y9" t="s">
@@ -3279,13 +3315,16 @@
       <c r="H10" s="22">
         <v>24.4</v>
       </c>
-      <c r="I10" s="22"/>
+      <c r="I10" s="22">
+        <f t="shared" si="1"/>
+        <v>0.84159696473225831</v>
+      </c>
       <c r="J10" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1449.625</v>
       </c>
       <c r="K10" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2174.4375</v>
       </c>
       <c r="L10" s="22">
@@ -3298,8 +3337,8 @@
         <v>1000</v>
       </c>
       <c r="O10" s="22">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.03</v>
       </c>
       <c r="P10" s="22">
         <v>37.020000000000003</v>
@@ -3317,19 +3356,19 @@
         <v>44067.6</v>
       </c>
       <c r="U10" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5199655083211174</v>
       </c>
       <c r="V10" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16648788479779253</v>
       </c>
       <c r="W10" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6765542812796413E-2</v>
       </c>
       <c r="X10" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2899.25</v>
       </c>
       <c r="Y10" t="s">
@@ -3497,13 +3536,16 @@
       <c r="H11" s="22">
         <v>64.2</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="22">
+        <f t="shared" si="1"/>
+        <v>12.640532398747762</v>
+      </c>
       <c r="J11" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>253.94499999999999</v>
       </c>
       <c r="K11" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>380.91750000000002</v>
       </c>
       <c r="L11" s="22">
@@ -3516,8 +3558,8 @@
         <v>1000</v>
       </c>
       <c r="O11" s="22">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.1800000000000002</v>
       </c>
       <c r="P11" s="22">
         <v>31.36</v>
@@ -3535,19 +3577,19 @@
         <v>8885.9</v>
       </c>
       <c r="U11" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7495717576640613</v>
       </c>
       <c r="V11" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.2716926893618698E-2</v>
       </c>
       <c r="W11" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X11" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>507.89</v>
       </c>
       <c r="Y11" t="s">
@@ -3719,13 +3761,16 @@
       <c r="H12" s="22">
         <v>21.4</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="22">
+        <f t="shared" si="1"/>
+        <v>9.8485894426802876</v>
+      </c>
       <c r="J12" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>108.64500000000001</v>
       </c>
       <c r="K12" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>162.96750000000003</v>
       </c>
       <c r="L12" s="22">
@@ -3738,8 +3783,8 @@
         <v>1000</v>
       </c>
       <c r="O12" s="22">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.84</v>
       </c>
       <c r="P12" s="22">
         <v>30.97</v>
@@ -3757,19 +3802,19 @@
         <v>285.5</v>
       </c>
       <c r="U12" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13139122831239358</v>
       </c>
       <c r="V12" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4943623728657556E-2</v>
       </c>
       <c r="W12" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X12" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>217.29000000000002</v>
       </c>
       <c r="Y12" t="s">
@@ -3931,13 +3976,16 @@
       <c r="H13" s="22">
         <v>28.1</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="22">
+        <f t="shared" si="1"/>
+        <v>10.399703923019986</v>
+      </c>
       <c r="J13" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>135.1</v>
       </c>
       <c r="K13" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>202.64999999999998</v>
       </c>
       <c r="L13" s="22">
@@ -3950,8 +3998,8 @@
         <v>1000</v>
       </c>
       <c r="O13" s="22">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.74</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1.23</v>
       </c>
       <c r="P13" s="22">
         <v>30.64</v>
@@ -3969,19 +4017,19 @@
         <v>7954.7</v>
       </c>
       <c r="U13" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9440044411546999</v>
       </c>
       <c r="V13" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.8860103626943004E-2</v>
       </c>
       <c r="W13" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X13" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>270.2</v>
       </c>
       <c r="Y13" t="s">
@@ -4146,13 +4194,16 @@
       <c r="H14" s="22">
         <v>45.9</v>
       </c>
-      <c r="I14" s="22"/>
+      <c r="I14" s="22">
+        <f t="shared" si="1"/>
+        <v>13.783369868772709</v>
+      </c>
       <c r="J14" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>166.505</v>
       </c>
       <c r="K14" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>249.75749999999999</v>
       </c>
       <c r="L14" s="22">
@@ -4165,8 +4216,8 @@
         <v>1000</v>
       </c>
       <c r="O14" s="22">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.69</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1.03</v>
       </c>
       <c r="P14" s="22">
         <v>27.57</v>
@@ -4184,19 +4235,19 @@
         <v>14032.1</v>
       </c>
       <c r="U14" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2137173057866129</v>
       </c>
       <c r="V14" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1249512026665866</v>
       </c>
       <c r="W14" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X14" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>333.01</v>
       </c>
       <c r="Y14" s="22"/>
@@ -4356,13 +4407,16 @@
       <c r="H15" s="22">
         <v>28.2</v>
       </c>
-      <c r="I15" s="22"/>
+      <c r="I15" s="22">
+        <f t="shared" si="1"/>
+        <v>7.7251808021038793</v>
+      </c>
       <c r="J15" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>182.52</v>
       </c>
       <c r="K15" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>273.78000000000003</v>
       </c>
       <c r="L15" s="22">
@@ -4375,8 +4429,8 @@
         <v>1000</v>
       </c>
       <c r="O15" s="22">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.85</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.19</v>
       </c>
       <c r="P15" s="22">
         <v>28.71</v>
@@ -4394,19 +4448,19 @@
         <v>1130.9000000000001</v>
       </c>
       <c r="U15" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30980166557089633</v>
       </c>
       <c r="V15" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.11779531010300241</v>
       </c>
       <c r="W15" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X15" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>365.04</v>
       </c>
       <c r="Y15" s="22"/>
@@ -4566,13 +4620,16 @@
       <c r="H16" s="22">
         <v>2.6</v>
       </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="22">
+        <f t="shared" si="1"/>
+        <v>1.08841259209645</v>
+      </c>
       <c r="J16" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119.44000000000001</v>
       </c>
       <c r="K16" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>179.16000000000003</v>
       </c>
       <c r="L16" s="22">
@@ -4585,8 +4642,8 @@
         <v>1000</v>
       </c>
       <c r="O16" s="22">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.67</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.48</v>
       </c>
       <c r="P16" s="22">
         <v>29.93</v>
@@ -4604,19 +4661,19 @@
         <v>398.5</v>
       </c>
       <c r="U16" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16682016075016742</v>
       </c>
       <c r="V16" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W16" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X16" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>238.88000000000002</v>
       </c>
       <c r="Y16" s="22"/>
@@ -4776,13 +4833,16 @@
       <c r="H17" s="22">
         <v>62.8</v>
       </c>
-      <c r="I17" s="22"/>
+      <c r="I17" s="22">
+        <f t="shared" si="1"/>
+        <v>5.2420701168614352</v>
+      </c>
       <c r="J17" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>599</v>
       </c>
       <c r="K17" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>898.5</v>
       </c>
       <c r="L17" s="22">
@@ -4795,8 +4855,8 @@
         <v>1000</v>
       </c>
       <c r="O17" s="22">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.93</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.86</v>
       </c>
       <c r="P17" s="22">
         <v>27.17</v>
@@ -4814,19 +4874,19 @@
         <v>126.8</v>
       </c>
       <c r="U17" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0584307178631052E-2</v>
       </c>
       <c r="V17" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5041736227045074E-4</v>
       </c>
       <c r="W17" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X17" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1198</v>
       </c>
       <c r="Y17" s="22"/>
@@ -4986,13 +5046,16 @@
       <c r="H18" s="22">
         <v>38.200000000000003</v>
       </c>
-      <c r="I18" s="22"/>
+      <c r="I18" s="22">
+        <f t="shared" si="1"/>
+        <v>4.0701515119227745</v>
+      </c>
       <c r="J18" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>469.27</v>
       </c>
       <c r="K18" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>703.90499999999997</v>
       </c>
       <c r="L18" s="22">
@@ -5005,8 +5068,8 @@
         <v>1000</v>
       </c>
       <c r="O18" s="22">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.35</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.32</v>
       </c>
       <c r="P18" s="22">
         <v>32.1</v>
@@ -5024,19 +5087,19 @@
         <v>7073.9</v>
       </c>
       <c r="U18" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.75371321414111281</v>
       </c>
       <c r="V18" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7953417009397576E-2</v>
       </c>
       <c r="W18" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1319070044963454</v>
       </c>
       <c r="X18" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>938.54</v>
       </c>
       <c r="Y18" s="22"/>
@@ -5199,13 +5262,16 @@
       <c r="H19" s="22">
         <v>55.7</v>
       </c>
-      <c r="I19" s="22"/>
+      <c r="I19" s="22">
+        <f t="shared" si="1"/>
+        <v>14.219703351969571</v>
+      </c>
       <c r="J19" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>195.85500000000002</v>
       </c>
       <c r="K19" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>293.78250000000003</v>
       </c>
       <c r="L19" s="22">
@@ -5218,8 +5284,8 @@
         <v>1000</v>
       </c>
       <c r="O19" s="22">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.65</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.4900000000000002</v>
       </c>
       <c r="P19" s="22">
         <v>38.18</v>
@@ -5237,19 +5303,19 @@
         <v>3155.7</v>
       </c>
       <c r="U19" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.80562150570575164</v>
       </c>
       <c r="V19" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.0883561818692407E-3</v>
       </c>
       <c r="W19" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X19" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>391.71000000000004</v>
       </c>
       <c r="Y19" s="22"/>
@@ -5412,13 +5478,16 @@
       <c r="H20" s="22">
         <v>80</v>
       </c>
-      <c r="I20" s="22"/>
+      <c r="I20" s="22">
+        <f t="shared" si="1"/>
+        <v>5.5383252104563585</v>
+      </c>
       <c r="J20" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>722.24</v>
       </c>
       <c r="K20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1083.3600000000001</v>
       </c>
       <c r="L20" s="22">
@@ -5431,8 +5500,8 @@
         <v>1000</v>
       </c>
       <c r="O20" s="22">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.36</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.04</v>
       </c>
       <c r="P20" s="22">
         <v>26.82</v>
@@ -5450,19 +5519,19 @@
         <v>2238.1</v>
       </c>
       <c r="U20" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15494157066902969</v>
       </c>
       <c r="V20" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1921798848028359E-3</v>
       </c>
       <c r="W20" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4988092600797519E-2</v>
       </c>
       <c r="X20" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1444.48</v>
       </c>
       <c r="Y20" s="22"/>
@@ -5625,13 +5694,16 @@
       <c r="H21" s="22">
         <v>72.099999999999994</v>
       </c>
-      <c r="I21" s="22"/>
+      <c r="I21" s="22">
+        <f t="shared" si="1"/>
+        <v>7.911513941162915</v>
+      </c>
       <c r="J21" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>455.66499999999996</v>
       </c>
       <c r="K21" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>683.49749999999995</v>
       </c>
       <c r="L21" s="22">
@@ -5644,8 +5716,8 @@
         <v>1000</v>
       </c>
       <c r="O21" s="22">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.91</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.19</v>
       </c>
       <c r="P21" s="22">
         <v>27.83</v>
@@ -5663,19 +5735,19 @@
         <v>2587.1</v>
       </c>
       <c r="U21" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28388179912874589</v>
       </c>
       <c r="V21" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5270758122743684E-2</v>
       </c>
       <c r="W21" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X21" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>911.32999999999993</v>
       </c>
       <c r="Y21" s="22"/>
@@ -6670,8 +6742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F966AD-FB33-4FCE-8E52-611BDF261806}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Thesis/node_states.xlsx
+++ b/Thesis/node_states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rockmtnins-my.sharepoint.com/personal/abigail_weeks_rmi_org/Documents/Documents/GitHub/Thesis/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="751" documentId="8_{9E02A2B6-ECB6-4618-BD54-B9EF156C98D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FBE32E0-3847-4FD9-9559-C45A25BBB38B}"/>
+  <xr:revisionPtr revIDLastSave="819" documentId="8_{9E02A2B6-ECB6-4618-BD54-B9EF156C98D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E5B7929-D3CF-407E-A9B1-2AEBC80CF18F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3ADA18EB-F48E-4EB7-BDCA-514FF055EF69}"/>
+    <workbookView minimized="1" xWindow="29940" yWindow="1245" windowWidth="21600" windowHeight="11175" xr2:uid="{3ADA18EB-F48E-4EB7-BDCA-514FF055EF69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="148">
   <si>
     <t>unique_id</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>DAY</t>
-  </si>
-  <si>
-    <t>DOM</t>
   </si>
   <si>
     <t>DPL</t>
@@ -501,9 +498,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>$/MW</t>
-  </si>
-  <si>
     <t>%solar/%installed capacity</t>
   </si>
   <si>
@@ -535,6 +529,12 @@
   </si>
   <si>
     <t>installed_capacity</t>
+  </si>
+  <si>
+    <t>$k/MW</t>
+  </si>
+  <si>
+    <t>DOM</t>
   </si>
 </sst>
 </file>
@@ -1321,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816C1B0C-57D5-4B9A-9755-18F0AFD5BC57}">
   <dimension ref="A1:BW54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1347,34 +1347,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="H1" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L1" s="22" t="s">
         <v>1</v>
@@ -1389,164 +1389,164 @@
         <v>4</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="23" t="s">
-        <v>39</v>
-      </c>
       <c r="U1" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="23" t="s">
-        <v>23</v>
-      </c>
       <c r="X1" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Y1" s="23"/>
       <c r="Z1" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AC1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AD1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AE1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AF1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AG1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AH1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="AH1" s="23" t="s">
+      <c r="AI1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="AI1" s="23" t="s">
+      <c r="AK1" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK1" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL1" s="23" t="s">
+      <c r="AN1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP1" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AM1" s="23" t="s">
+      <c r="AQ1" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR1" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AN1" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO1" s="23" t="s">
+      <c r="AU1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ1" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR1" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS1" s="23" t="s">
+      <c r="AV1" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="AT1" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU1" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV1" s="22" t="s">
+      <c r="AW1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="AW1" s="22" t="s">
+      <c r="AX1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="AX1" s="22" t="s">
+      <c r="AY1" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="AY1" s="22" t="s">
+      <c r="AZ1" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="AZ1" s="22" t="s">
+      <c r="BA1" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="BA1" s="22" t="s">
+      <c r="BB1" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="BB1" s="22" t="s">
+      <c r="BC1" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="BC1" s="22" t="s">
+      <c r="BD1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="BD1" s="22" t="s">
+      <c r="BE1" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="BE1" s="22" t="s">
+      <c r="BF1" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="BF1" s="22" t="s">
+      <c r="BG1" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="BG1" s="22" t="s">
+      <c r="BH1" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="BH1" s="22" t="s">
+      <c r="BI1" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="BI1" s="22" t="s">
+      <c r="BJ1" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="BJ1" s="22" t="s">
+      <c r="BK1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="BK1" s="22" t="s">
+      <c r="BL1" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BL1" s="22" t="s">
+      <c r="BM1" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="BM1" s="22" t="s">
+      <c r="BN1" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="BN1" s="22" t="s">
+      <c r="BO1" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="BO1" s="22" t="s">
+      <c r="BP1" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="BP1" s="22" t="s">
-        <v>105</v>
-      </c>
       <c r="BQ1" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:75">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>6</v>
@@ -1581,11 +1581,11 @@
       </c>
       <c r="J2" s="22">
         <f>0.5*X2</f>
-        <v>63.260000000000005</v>
+        <v>126.52000000000001</v>
       </c>
       <c r="K2" s="22">
         <f>J2*1.5</f>
-        <v>94.890000000000015</v>
+        <v>189.78000000000003</v>
       </c>
       <c r="L2" s="22">
         <v>100</v>
@@ -1594,11 +1594,11 @@
         <v>500</v>
       </c>
       <c r="N2" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O2" s="22">
         <f ca="1">ROUND(RAND()*4, 2)</f>
-        <v>3.87</v>
+        <v>3.37</v>
       </c>
       <c r="P2" s="22">
         <v>27.54</v>
@@ -1628,10 +1628,10 @@
         <v>5.9279165349351882E-3</v>
       </c>
       <c r="X2" s="22">
-        <f>Q2*0.1</f>
-        <v>126.52000000000001</v>
-      </c>
-      <c r="Y2" t="s">
+        <f>Q2*0.2</f>
+        <v>253.04000000000002</v>
+      </c>
+      <c r="Y2" s="22" t="s">
         <v>6</v>
       </c>
       <c r="Z2">
@@ -1772,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>7</v>
@@ -1799,11 +1799,11 @@
       </c>
       <c r="J3" s="22">
         <f t="shared" ref="J3:J21" si="2">0.5*X3</f>
-        <v>1847.7150000000001</v>
+        <v>3695.4300000000003</v>
       </c>
       <c r="K3" s="22">
         <f t="shared" ref="K3:K21" si="3">J3*1.5</f>
-        <v>2771.5725000000002</v>
+        <v>5543.1450000000004</v>
       </c>
       <c r="L3" s="22">
         <v>100</v>
@@ -1812,11 +1812,11 @@
         <v>500</v>
       </c>
       <c r="N3" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O3" s="22">
         <f t="shared" ref="O3:O21" ca="1" si="4">ROUND(RAND()*4, 2)</f>
-        <v>1.5</v>
+        <v>0.73</v>
       </c>
       <c r="P3" s="22">
         <v>31.18</v>
@@ -1846,10 +1846,10 @@
         <v>9.4735930595356968E-2</v>
       </c>
       <c r="X3" s="22">
-        <f t="shared" ref="X3:X21" si="8">Q3*0.1</f>
-        <v>3695.4300000000003</v>
-      </c>
-      <c r="Y3" t="s">
+        <f t="shared" ref="X3:X21" si="8">Q3*0.2</f>
+        <v>7390.8600000000006</v>
+      </c>
+      <c r="Y3" s="22" t="s">
         <v>7</v>
       </c>
       <c r="Z3">
@@ -1990,7 +1990,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>8</v>
@@ -2017,11 +2017,11 @@
       </c>
       <c r="J4" s="22">
         <f t="shared" si="2"/>
-        <v>539.22</v>
+        <v>1078.44</v>
       </c>
       <c r="K4" s="22">
         <f t="shared" si="3"/>
-        <v>808.83</v>
+        <v>1617.66</v>
       </c>
       <c r="L4" s="22">
         <v>100</v>
@@ -2030,11 +2030,11 @@
         <v>500</v>
       </c>
       <c r="N4" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O4" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
       <c r="P4" s="22">
         <v>32.33</v>
@@ -2065,9 +2065,9 @@
       </c>
       <c r="X4" s="22">
         <f t="shared" si="8"/>
-        <v>1078.44</v>
-      </c>
-      <c r="Y4" t="s">
+        <v>2156.88</v>
+      </c>
+      <c r="Y4" s="22" t="s">
         <v>8</v>
       </c>
       <c r="Z4">
@@ -2208,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>9</v>
@@ -2235,11 +2235,11 @@
       </c>
       <c r="J5" s="22">
         <f t="shared" si="2"/>
-        <v>465.45000000000005</v>
+        <v>930.90000000000009</v>
       </c>
       <c r="K5" s="22">
         <f t="shared" si="3"/>
-        <v>698.17500000000007</v>
+        <v>1396.3500000000001</v>
       </c>
       <c r="L5" s="22">
         <v>100</v>
@@ -2248,11 +2248,11 @@
         <v>500</v>
       </c>
       <c r="N5" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O5" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>2.76</v>
+        <v>3.74</v>
       </c>
       <c r="P5" s="22">
         <v>31.47</v>
@@ -2283,9 +2283,9 @@
       </c>
       <c r="X5" s="22">
         <f t="shared" si="8"/>
-        <v>930.90000000000009</v>
-      </c>
-      <c r="Y5" t="s">
+        <v>1861.8000000000002</v>
+      </c>
+      <c r="Y5" s="22" t="s">
         <v>9</v>
       </c>
       <c r="Z5">
@@ -2426,10 +2426,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="22">
         <v>29969</v>
@@ -2453,11 +2453,11 @@
       </c>
       <c r="J6" s="22">
         <f t="shared" si="2"/>
-        <v>219.83500000000001</v>
+        <v>439.67</v>
       </c>
       <c r="K6" s="22">
         <f t="shared" si="3"/>
-        <v>329.7525</v>
+        <v>659.505</v>
       </c>
       <c r="L6" s="22">
         <v>100</v>
@@ -2466,11 +2466,11 @@
         <v>500</v>
       </c>
       <c r="N6" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O6" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4500000000000002</v>
+        <v>1.71</v>
       </c>
       <c r="P6" s="22">
         <v>40.11</v>
@@ -2501,10 +2501,10 @@
       </c>
       <c r="X6" s="22">
         <f t="shared" si="8"/>
-        <v>439.67</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>10</v>
+        <v>879.34</v>
+      </c>
+      <c r="Y6" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="AA6" s="38">
         <v>3.5</v>
@@ -2641,7 +2641,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>10</v>
@@ -2668,11 +2668,11 @@
       </c>
       <c r="J7" s="22">
         <f t="shared" si="2"/>
-        <v>1529.2650000000001</v>
+        <v>3058.53</v>
       </c>
       <c r="K7" s="22">
         <f t="shared" si="3"/>
-        <v>2293.8975</v>
+        <v>4587.7950000000001</v>
       </c>
       <c r="L7" s="22">
         <v>100</v>
@@ -2681,11 +2681,11 @@
         <v>500</v>
       </c>
       <c r="N7" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O7" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.04</v>
+        <v>3.63</v>
       </c>
       <c r="P7" s="22">
         <v>25.55</v>
@@ -2716,10 +2716,10 @@
       </c>
       <c r="X7" s="22">
         <f t="shared" si="8"/>
-        <v>3058.53</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>11</v>
+        <v>6117.06</v>
+      </c>
+      <c r="Y7" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="Z7">
         <v>173.27549999999999</v>
@@ -2859,7 +2859,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>11</v>
@@ -2886,11 +2886,11 @@
       </c>
       <c r="J8" s="22">
         <f t="shared" si="2"/>
-        <v>81.220000000000013</v>
+        <v>162.44000000000003</v>
       </c>
       <c r="K8" s="22">
         <f t="shared" si="3"/>
-        <v>121.83000000000001</v>
+        <v>243.66000000000003</v>
       </c>
       <c r="L8" s="22">
         <v>100</v>
@@ -2899,11 +2899,11 @@
         <v>500</v>
       </c>
       <c r="N8" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O8" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3</v>
+        <v>0.43</v>
       </c>
       <c r="P8" s="22">
         <v>32.69</v>
@@ -2934,10 +2934,10 @@
       </c>
       <c r="X8" s="22">
         <f t="shared" si="8"/>
-        <v>162.44000000000003</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>12</v>
+        <v>324.88000000000005</v>
+      </c>
+      <c r="Y8" s="22" t="s">
+        <v>11</v>
       </c>
       <c r="Z8">
         <v>104.01390000000001</v>
@@ -3077,10 +3077,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="22">
         <v>26026</v>
@@ -3104,11 +3104,11 @@
       </c>
       <c r="J9" s="22">
         <f t="shared" si="2"/>
-        <v>144.995</v>
+        <v>289.99</v>
       </c>
       <c r="K9" s="22">
         <f t="shared" si="3"/>
-        <v>217.49250000000001</v>
+        <v>434.98500000000001</v>
       </c>
       <c r="L9" s="22">
         <v>100</v>
@@ -3117,11 +3117,11 @@
         <v>500</v>
       </c>
       <c r="N9" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O9" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>1.22</v>
+        <v>2.91</v>
       </c>
       <c r="P9" s="22">
         <v>31.28</v>
@@ -3152,10 +3152,10 @@
       </c>
       <c r="X9" s="22">
         <f t="shared" si="8"/>
-        <v>289.99</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>13</v>
+        <v>579.98</v>
+      </c>
+      <c r="Y9" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="AA9" s="38">
         <v>18</v>
@@ -3294,10 +3294,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="D10" s="22">
         <v>121532</v>
@@ -3321,11 +3321,11 @@
       </c>
       <c r="J10" s="22">
         <f t="shared" si="2"/>
-        <v>1449.625</v>
+        <v>2899.25</v>
       </c>
       <c r="K10" s="22">
         <f t="shared" si="3"/>
-        <v>2174.4375</v>
+        <v>4348.875</v>
       </c>
       <c r="L10" s="22">
         <v>100</v>
@@ -3334,11 +3334,11 @@
         <v>500</v>
       </c>
       <c r="N10" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O10" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>3.03</v>
+        <v>2.72</v>
       </c>
       <c r="P10" s="22">
         <v>37.020000000000003</v>
@@ -3369,10 +3369,10 @@
       </c>
       <c r="X10" s="22">
         <f t="shared" si="8"/>
-        <v>2899.25</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>14</v>
+        <v>5798.5</v>
+      </c>
+      <c r="Y10" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="Z10">
         <v>329.541</v>
@@ -3515,10 +3515,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="22">
         <v>18168</v>
@@ -3542,11 +3542,11 @@
       </c>
       <c r="J11" s="22">
         <f t="shared" si="2"/>
-        <v>253.94499999999999</v>
+        <v>507.89</v>
       </c>
       <c r="K11" s="22">
         <f t="shared" si="3"/>
-        <v>380.91750000000002</v>
+        <v>761.83500000000004</v>
       </c>
       <c r="L11" s="22">
         <v>100</v>
@@ -3555,11 +3555,11 @@
         <v>500</v>
       </c>
       <c r="N11" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O11" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1800000000000002</v>
+        <v>1.59</v>
       </c>
       <c r="P11" s="22">
         <v>31.36</v>
@@ -3590,10 +3590,10 @@
       </c>
       <c r="X11" s="22">
         <f t="shared" si="8"/>
-        <v>507.89</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>15</v>
+        <v>1015.78</v>
+      </c>
+      <c r="Y11" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="Z11">
         <v>268.78199999999998</v>
@@ -3729,10 +3729,10 @@
       </c>
       <c r="BU11" s="54"/>
       <c r="BV11" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BW11" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:75" ht="26">
@@ -3740,10 +3740,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="22">
         <v>13319</v>
@@ -3767,11 +3767,11 @@
       </c>
       <c r="J12" s="22">
         <f t="shared" si="2"/>
-        <v>108.64500000000001</v>
+        <v>217.29000000000002</v>
       </c>
       <c r="K12" s="22">
         <f t="shared" si="3"/>
-        <v>162.96750000000003</v>
+        <v>325.93500000000006</v>
       </c>
       <c r="L12" s="22">
         <v>100</v>
@@ -3780,11 +3780,11 @@
         <v>500</v>
       </c>
       <c r="N12" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O12" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84</v>
+        <v>3.09</v>
       </c>
       <c r="P12" s="22">
         <v>30.97</v>
@@ -3815,10 +3815,10 @@
       </c>
       <c r="X12" s="22">
         <f t="shared" si="8"/>
-        <v>217.29000000000002</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>16</v>
+        <v>434.58000000000004</v>
+      </c>
+      <c r="Y12" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="AA12" s="38">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="22">
         <v>13776</v>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="J13" s="22">
         <f t="shared" si="2"/>
-        <v>135.1</v>
+        <v>270.2</v>
       </c>
       <c r="K13" s="22">
         <f t="shared" si="3"/>
-        <v>202.64999999999998</v>
+        <v>405.29999999999995</v>
       </c>
       <c r="L13" s="22">
         <v>100</v>
@@ -3995,11 +3995,11 @@
         <v>500</v>
       </c>
       <c r="N13" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O13" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>1.23</v>
+        <v>1.74</v>
       </c>
       <c r="P13" s="22">
         <v>30.64</v>
@@ -4030,10 +4030,10 @@
       </c>
       <c r="X13" s="22">
         <f t="shared" si="8"/>
-        <v>270.2</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>26</v>
+        <v>540.4</v>
+      </c>
+      <c r="Y13" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="Z13">
         <v>177.1003</v>
@@ -4173,10 +4173,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="22">
         <v>21650</v>
@@ -4200,11 +4200,11 @@
       </c>
       <c r="J14" s="22">
         <f t="shared" si="2"/>
-        <v>166.505</v>
+        <v>333.01</v>
       </c>
       <c r="K14" s="22">
         <f t="shared" si="3"/>
-        <v>249.75749999999999</v>
+        <v>499.51499999999999</v>
       </c>
       <c r="L14" s="22">
         <v>100</v>
@@ -4213,11 +4213,11 @@
         <v>500</v>
       </c>
       <c r="N14" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O14" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="P14" s="22">
         <v>27.57</v>
@@ -4248,9 +4248,11 @@
       </c>
       <c r="X14" s="22">
         <f t="shared" si="8"/>
-        <v>333.01</v>
-      </c>
-      <c r="Y14" s="22"/>
+        <v>666.02</v>
+      </c>
+      <c r="Y14" s="22" t="s">
+        <v>46</v>
+      </c>
       <c r="AA14" s="38">
         <v>112.8</v>
       </c>
@@ -4386,10 +4388,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="22">
         <v>14964</v>
@@ -4413,11 +4415,11 @@
       </c>
       <c r="J15" s="22">
         <f t="shared" si="2"/>
-        <v>182.52</v>
+        <v>365.04</v>
       </c>
       <c r="K15" s="22">
         <f t="shared" si="3"/>
-        <v>273.78000000000003</v>
+        <v>547.56000000000006</v>
       </c>
       <c r="L15" s="22">
         <v>100</v>
@@ -4426,11 +4428,11 @@
         <v>500</v>
       </c>
       <c r="N15" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O15" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>2.19</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="P15" s="22">
         <v>28.71</v>
@@ -4461,9 +4463,11 @@
       </c>
       <c r="X15" s="22">
         <f t="shared" si="8"/>
-        <v>365.04</v>
-      </c>
-      <c r="Y15" s="22"/>
+        <v>730.08</v>
+      </c>
+      <c r="Y15" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="AA15" s="38">
         <v>0</v>
       </c>
@@ -4599,10 +4603,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="22">
         <v>116</v>
@@ -4626,11 +4630,11 @@
       </c>
       <c r="J16" s="22">
         <f t="shared" si="2"/>
-        <v>119.44000000000001</v>
+        <v>238.88000000000002</v>
       </c>
       <c r="K16" s="22">
         <f t="shared" si="3"/>
-        <v>179.16000000000003</v>
+        <v>358.32000000000005</v>
       </c>
       <c r="L16" s="22">
         <v>100</v>
@@ -4639,11 +4643,11 @@
         <v>500</v>
       </c>
       <c r="N16" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O16" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>3.48</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="P16" s="22">
         <v>29.93</v>
@@ -4674,9 +4678,11 @@
       </c>
       <c r="X16" s="22">
         <f t="shared" si="8"/>
-        <v>238.88000000000002</v>
-      </c>
-      <c r="Y16" s="22"/>
+        <v>477.76000000000005</v>
+      </c>
+      <c r="Y16" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="AA16" s="38">
         <v>0</v>
       </c>
@@ -4812,10 +4818,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="22">
         <v>38004</v>
@@ -4839,11 +4845,11 @@
       </c>
       <c r="J17" s="22">
         <f t="shared" si="2"/>
-        <v>599</v>
+        <v>1198</v>
       </c>
       <c r="K17" s="22">
         <f t="shared" si="3"/>
-        <v>898.5</v>
+        <v>1797</v>
       </c>
       <c r="L17" s="22">
         <v>100</v>
@@ -4852,11 +4858,11 @@
         <v>500</v>
       </c>
       <c r="N17" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O17" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="P17" s="22">
         <v>27.17</v>
@@ -4887,9 +4893,11 @@
       </c>
       <c r="X17" s="22">
         <f t="shared" si="8"/>
-        <v>1198</v>
-      </c>
-      <c r="Y17" s="22"/>
+        <v>2396</v>
+      </c>
+      <c r="Y17" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="AA17" s="38">
         <v>0</v>
       </c>
@@ -5025,10 +5033,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="22">
         <v>16530</v>
@@ -5052,11 +5060,11 @@
       </c>
       <c r="J18" s="22">
         <f t="shared" si="2"/>
-        <v>469.27</v>
+        <v>938.54</v>
       </c>
       <c r="K18" s="22">
         <f t="shared" si="3"/>
-        <v>703.90499999999997</v>
+        <v>1407.81</v>
       </c>
       <c r="L18" s="22">
         <v>100</v>
@@ -5065,11 +5073,11 @@
         <v>500</v>
       </c>
       <c r="N18" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O18" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="P18" s="22">
         <v>32.1</v>
@@ -5100,9 +5108,11 @@
       </c>
       <c r="X18" s="22">
         <f t="shared" si="8"/>
-        <v>938.54</v>
-      </c>
-      <c r="Y18" s="22"/>
+        <v>1877.08</v>
+      </c>
+      <c r="Y18" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="Z18">
         <v>417.80309999999997</v>
       </c>
@@ -5241,10 +5251,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="22">
         <v>27616</v>
@@ -5268,11 +5278,11 @@
       </c>
       <c r="J19" s="22">
         <f t="shared" si="2"/>
-        <v>195.85500000000002</v>
+        <v>391.71000000000004</v>
       </c>
       <c r="K19" s="22">
         <f t="shared" si="3"/>
-        <v>293.78250000000003</v>
+        <v>587.56500000000005</v>
       </c>
       <c r="L19" s="22">
         <v>100</v>
@@ -5281,11 +5291,11 @@
         <v>500</v>
       </c>
       <c r="N19" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O19" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4900000000000002</v>
+        <v>1.45</v>
       </c>
       <c r="P19" s="22">
         <v>38.18</v>
@@ -5316,9 +5326,11 @@
       </c>
       <c r="X19" s="22">
         <f t="shared" si="8"/>
-        <v>391.71000000000004</v>
-      </c>
-      <c r="Y19" s="22"/>
+        <v>783.42000000000007</v>
+      </c>
+      <c r="Y19" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="Z19">
         <v>8.5723490000000009</v>
       </c>
@@ -5457,10 +5469,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="22">
         <v>39806</v>
@@ -5484,11 +5496,11 @@
       </c>
       <c r="J20" s="22">
         <f t="shared" si="2"/>
-        <v>722.24</v>
+        <v>1444.48</v>
       </c>
       <c r="K20" s="22">
         <f t="shared" si="3"/>
-        <v>1083.3600000000001</v>
+        <v>2166.7200000000003</v>
       </c>
       <c r="L20" s="22">
         <v>100</v>
@@ -5497,11 +5509,11 @@
         <v>500</v>
       </c>
       <c r="N20" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O20" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="P20" s="22">
         <v>26.82</v>
@@ -5532,9 +5544,11 @@
       </c>
       <c r="X20" s="22">
         <f t="shared" si="8"/>
-        <v>1444.48</v>
-      </c>
-      <c r="Y20" s="22"/>
+        <v>2888.96</v>
+      </c>
+      <c r="Y20" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="Z20">
         <v>857.04359999999997</v>
       </c>
@@ -5673,10 +5687,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="22">
         <v>42180</v>
@@ -5700,11 +5714,11 @@
       </c>
       <c r="J21" s="22">
         <f t="shared" si="2"/>
-        <v>455.66499999999996</v>
+        <v>911.32999999999993</v>
       </c>
       <c r="K21" s="22">
         <f t="shared" si="3"/>
-        <v>683.49749999999995</v>
+        <v>1366.9949999999999</v>
       </c>
       <c r="L21" s="22">
         <v>100</v>
@@ -5713,11 +5727,11 @@
         <v>500</v>
       </c>
       <c r="N21" s="22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O21" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>2.19</v>
+        <v>1.31</v>
       </c>
       <c r="P21" s="22">
         <v>27.83</v>
@@ -5748,9 +5762,11 @@
       </c>
       <c r="X21" s="22">
         <f t="shared" si="8"/>
-        <v>911.32999999999993</v>
-      </c>
-      <c r="Y21" s="22"/>
+        <v>1822.6599999999999</v>
+      </c>
+      <c r="Y21" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="AA21" s="38">
         <v>7.7</v>
       </c>
@@ -6721,8 +6737,20 @@
       <c r="BQ54" s="16"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1">
-    <cfRule type="colorScale" priority="89">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6730,6 +6758,54 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:X21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P21">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -6743,7 +6819,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6753,13 +6829,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6767,78 +6843,78 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
         <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
         <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
         <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6846,29 +6922,29 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6876,10 +6952,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6887,10 +6963,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6898,10 +6974,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6909,608 +6985,608 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
         <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="29">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="29">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I30" s="22"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I31" s="22"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I34" s="22"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I35" s="22"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I37" s="22"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I38" s="22"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I39" s="22"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I40" s="22"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
